--- a/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>40</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>120</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>200</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>80</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>240</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>600</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>240</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>120</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>440</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>680</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>280</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>960</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>400</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>1880</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>1680</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>360</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2520</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>280</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>160</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>680</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1400</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2320</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>6440</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>440</v>

--- a/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-794.6168255205497</v>
+      </c>
+      <c r="D2" t="n">
+        <v>582.8259366982408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-658.5187259919429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>744.1496260744184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-573.3230693645786</v>
+      </c>
+      <c r="D4" t="n">
+        <v>778.5114752008983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-555.4532114266668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>856.7122642240752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-494.8484174358874</v>
+      </c>
+      <c r="D6" t="n">
+        <v>845.632065934652</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-408.1194382203907</v>
+      </c>
+      <c r="D7" t="n">
+        <v>953.1039187584125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-400.4467039599242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1027.525458849054</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>350</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-344.8648890286874</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1094.143362533115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>400</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-321.8682109605942</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1025.474219522164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>450</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-253.7339939342882</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1166.550255232798</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>500</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-216.586484349798</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1258.2907728924</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>550</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-124.0109318489339</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1274.033506128098</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>600</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-124.705820362864</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1318.954745386205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>650</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-30.15859711132638</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1359.96068882284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>700</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.899425101084018</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1426.52600968729</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81.63443956529323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1418.160149638346</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>851</v>
+      </c>
+      <c r="C18" t="n">
+        <v>174.7953540966355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1529.224404618299</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>901</v>
+      </c>
+      <c r="C19" t="n">
+        <v>181.2600109060529</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1588.887944754863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>951</v>
+      </c>
+      <c r="C20" t="n">
+        <v>244.3511197488724</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1650.031909300756</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>275.0963800653625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1734.104393775136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C22" t="n">
+        <v>383.052189920858</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1706.983151776381</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C23" t="n">
+        <v>469.3527539255417</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1806.659649379435</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C24" t="n">
+        <v>478.2789116267172</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1880.9488592165</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C25" t="n">
+        <v>516.4217583100508</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1927.890122156588</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C26" t="n">
+        <v>583.2699201180054</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1989.320893560013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C27" t="n">
+        <v>561.4668828518621</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1986.065490866361</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C28" t="n">
+        <v>690.1639199815961</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2071.253773312268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C29" t="n">
+        <v>676.968833176912</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2080.325558994291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C30" t="n">
+        <v>741.7270256604804</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2165.089747756187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C31" t="n">
+        <v>805.2303691947511</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2216.369951612223</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D4XZXLL7_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-794.6168255205497</v>
-      </c>
-      <c r="D2" t="n">
-        <v>582.8259366982408</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C3" t="n">
-        <v>-658.5187259919429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>744.1496260744184</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>100</v>
       </c>
-      <c r="C4" t="n">
-        <v>-573.3230693645786</v>
-      </c>
-      <c r="D4" t="n">
-        <v>778.5114752008983</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>150</v>
       </c>
-      <c r="C5" t="n">
-        <v>-555.4532114266668</v>
-      </c>
-      <c r="D5" t="n">
-        <v>856.7122642240752</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>200</v>
       </c>
-      <c r="C6" t="n">
-        <v>-494.8484174358874</v>
-      </c>
-      <c r="D6" t="n">
-        <v>845.632065934652</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>250</v>
       </c>
-      <c r="C7" t="n">
-        <v>-408.1194382203907</v>
-      </c>
-      <c r="D7" t="n">
-        <v>953.1039187584125</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>300</v>
       </c>
-      <c r="C8" t="n">
-        <v>-400.4467039599242</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1027.525458849054</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>350</v>
       </c>
-      <c r="C9" t="n">
-        <v>-344.8648890286874</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1094.143362533115</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>400</v>
       </c>
-      <c r="C10" t="n">
-        <v>-321.8682109605942</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1025.474219522164</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>450</v>
       </c>
-      <c r="C11" t="n">
-        <v>-253.7339939342882</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1166.550255232798</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>500</v>
       </c>
-      <c r="C12" t="n">
-        <v>-216.586484349798</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1258.2907728924</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>550</v>
       </c>
-      <c r="C13" t="n">
-        <v>-124.0109318489339</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1274.033506128098</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>600</v>
       </c>
-      <c r="C14" t="n">
-        <v>-124.705820362864</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1318.954745386205</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>650</v>
       </c>
-      <c r="C15" t="n">
-        <v>-30.15859711132638</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1359.96068882284</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>700</v>
       </c>
-      <c r="C16" t="n">
-        <v>5.899425101084018</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1426.52600968729</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>751</v>
       </c>
-      <c r="C17" t="n">
-        <v>81.63443956529323</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1418.160149638346</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>851</v>
       </c>
-      <c r="C18" t="n">
-        <v>174.7953540966355</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1529.224404618299</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>901</v>
       </c>
-      <c r="C19" t="n">
-        <v>181.2600109060529</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1588.887944754863</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>951</v>
       </c>
-      <c r="C20" t="n">
-        <v>244.3511197488724</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1650.031909300756</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>1001</v>
       </c>
-      <c r="C21" t="n">
-        <v>275.0963800653625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1734.104393775136</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>1051</v>
       </c>
-      <c r="C22" t="n">
-        <v>383.052189920858</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1706.983151776381</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>1101</v>
       </c>
-      <c r="C23" t="n">
-        <v>469.3527539255417</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1806.659649379435</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>1151</v>
       </c>
-      <c r="C24" t="n">
-        <v>478.2789116267172</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1880.9488592165</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>1201</v>
       </c>
-      <c r="C25" t="n">
-        <v>516.4217583100508</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1927.890122156588</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>1251</v>
       </c>
-      <c r="C26" t="n">
-        <v>583.2699201180054</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1989.320893560013</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>1301</v>
       </c>
-      <c r="C27" t="n">
-        <v>561.4668828518621</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1986.065490866361</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>1351</v>
       </c>
-      <c r="C28" t="n">
-        <v>690.1639199815961</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2071.253773312268</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>1401</v>
       </c>
-      <c r="C29" t="n">
-        <v>676.968833176912</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2080.325558994291</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>1451</v>
       </c>
-      <c r="C30" t="n">
-        <v>741.7270256604804</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2165.089747756187</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>1501</v>
-      </c>
-      <c r="C31" t="n">
-        <v>805.2303691947511</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2216.369951612223</v>
       </c>
     </row>
   </sheetData>
